--- a/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-7.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-7.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10450" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="912">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-7.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test1/Soluzioni-7.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50373" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71722" uniqueCount="912">
   <si>
     <t>ANSPs</t>
   </si>
@@ -30879,7 +30879,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>90</v>
@@ -30969,7 +30969,7 @@
         <v>90</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="AG2" s="5" t="s">
         <v>90</v>
@@ -30981,7 +30981,7 @@
         <v>90</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>858</v>
+        <v>844</v>
       </c>
       <c r="AK2" s="5" t="s">
         <v>90</v>
@@ -32292,7 +32292,7 @@
         <v>90</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>90</v>
@@ -32307,7 +32307,7 @@
         <v>90</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>90</v>
@@ -32319,7 +32319,7 @@
         <v>90</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="S14" s="5" t="s">
         <v>90</v>
@@ -32364,10 +32364,10 @@
         <v>90</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>90</v>
@@ -32376,7 +32376,7 @@
         <v>90</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>90</v>
@@ -33217,7 +33217,7 @@
         <v>90</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>90</v>
@@ -33259,7 +33259,7 @@
         <v>90</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>90</v>
@@ -33289,7 +33289,7 @@
         <v>90</v>
       </c>
       <c r="AF22" s="5" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="AG22" s="5" t="s">
         <v>90</v>
@@ -33550,73 +33550,73 @@
         <v>90</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>90</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>90</v>
@@ -33628,34 +33628,34 @@
         <v>90</v>
       </c>
       <c r="AC25" s="5" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="AF25" s="5" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="AI25" s="5" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="AJ25" s="5" t="s">
-        <v>859</v>
+        <v>845</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="26">
@@ -33681,7 +33681,7 @@
         <v>90</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>90</v>
@@ -33735,7 +33735,7 @@
         <v>90</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA26" s="5" t="s">
         <v>90</v>
@@ -33785,7 +33785,7 @@
         <v>90</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>90</v>
@@ -33854,7 +33854,7 @@
         <v>90</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AB27" s="5" t="s">
         <v>90</v>
@@ -33898,70 +33898,70 @@
         <v>90</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>90</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>90</v>
@@ -33973,31 +33973,31 @@
         <v>90</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="AF28" s="5" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="AK28" s="5" t="s">
         <v>90</v>
@@ -35171,115 +35171,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="T39" s="4" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="V39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W39" s="4" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="X39" s="4" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="Y39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AB39" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC39" s="4" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="AD39" s="4" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="AF39" s="4" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="AG39" s="4" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="AH39" s="4" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="AI39" s="4" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="AJ39" s="4" t="s">
-        <v>861</v>
+        <v>847</v>
       </c>
       <c r="AK39" s="4" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="AL39" s="4" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
     </row>
     <row r="40">
@@ -35287,115 +35287,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="S40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="V40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Y40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AB40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AD40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AF40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AG40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AH40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AI40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AJ40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AK40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AL40" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41">
@@ -35403,115 +35403,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>98</v>
+        <v>258</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>98</v>
+        <v>289</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>98</v>
+        <v>319</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>98</v>
+        <v>333</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>98</v>
+        <v>361</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>98</v>
+        <v>398</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>98</v>
+        <v>431</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>98</v>
+        <v>459</v>
       </c>
       <c r="R41" s="4" t="s">
-        <v>98</v>
+        <v>486</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>98</v>
+        <v>517</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>98</v>
+        <v>532</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>98</v>
+        <v>561</v>
       </c>
       <c r="V41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>98</v>
+        <v>583</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>98</v>
+        <v>611</v>
       </c>
       <c r="Y41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AA41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AB41" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC41" s="4" t="s">
-        <v>98</v>
+        <v>648</v>
       </c>
       <c r="AD41" s="4" t="s">
-        <v>98</v>
+        <v>676</v>
       </c>
       <c r="AE41" s="4" t="s">
-        <v>98</v>
+        <v>705</v>
       </c>
       <c r="AF41" s="4" t="s">
-        <v>98</v>
+        <v>733</v>
       </c>
       <c r="AG41" s="4" t="s">
-        <v>98</v>
+        <v>767</v>
       </c>
       <c r="AH41" s="4" t="s">
-        <v>98</v>
+        <v>799</v>
       </c>
       <c r="AI41" s="4" t="s">
-        <v>98</v>
+        <v>831</v>
       </c>
       <c r="AJ41" s="4" t="s">
-        <v>98</v>
+        <v>847</v>
       </c>
       <c r="AK41" s="4" t="s">
-        <v>98</v>
+        <v>878</v>
       </c>
       <c r="AL41" s="4" t="s">
-        <v>98</v>
+        <v>901</v>
       </c>
     </row>
     <row r="42">
